--- a/data/occupation-employment-statistics.xlsx
+++ b/data/occupation-employment-statistics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_\Dropbox\Data Science\UCLA\Git\los-angeles-tech-jobs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598A4DF7-A797-4010-9C13-816781849ED5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF88A5FA-7065-42B0-A548-7068EC8CD60A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" xr2:uid="{3E7ED1E6-BBE8-403F-B548-3051307BF98E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" activeTab="2" xr2:uid="{3E7ED1E6-BBE8-403F-B548-3051307BF98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="133">
   <si>
     <t>Occupation code</t>
   </si>
@@ -381,6 +382,60 @@
   </si>
   <si>
     <t>Surveying and Mapping Technicians</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Professional, Scientific and Technical Services</t>
+  </si>
+  <si>
+    <t>Burbank</t>
+  </si>
+  <si>
+    <t>Universal City</t>
+  </si>
+  <si>
+    <t>Santa Monica</t>
+  </si>
+  <si>
+    <t>West LA</t>
+  </si>
+  <si>
+    <t>Hollywood</t>
+  </si>
+  <si>
+    <t>El Segundo</t>
+  </si>
+  <si>
+    <t>Culver City</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>DTLA</t>
+  </si>
+  <si>
+    <t>Century City</t>
+  </si>
+  <si>
+    <t>Warner Center</t>
+  </si>
+  <si>
+    <t>Wilshire Center</t>
   </si>
 </sst>
 </file>
@@ -391,7 +446,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +474,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -465,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -506,12 +581,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -585,12 +761,221 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFDFDFD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color rgb="FFCFD4D8"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFDFDFD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color rgb="FFCFD4D8"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -892,66 +1277,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEEF4FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1046,6 +1371,66 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEEF4FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1060,32 +1445,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAB3C1C6-A4B1-48AC-9BBA-69B3AFC93352}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAB3C1C6-A4B1-48AC-9BBA-69B3AFC93352}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1A0A5374-841F-4BB8-8D66-99FC1D35C2E2}" name="Occupation code" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{7EDEADC5-EC7B-4A0E-9851-E8EC19DE627C}" name="Occupation title (click on the occupation title to view its profile)" dataDxfId="13" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{1A0A5374-841F-4BB8-8D66-99FC1D35C2E2}" name="Occupation code" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7EDEADC5-EC7B-4A0E-9851-E8EC19DE627C}" name="Occupation title (click on the occupation title to view its profile)" dataDxfId="19" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{E5B7ACE3-9AE9-4E79-95D8-BBA2A4A00F7A}" name="Employment"/>
-    <tableColumn id="10" xr3:uid="{89402D94-0421-4D96-B948-F7D387F79AF5}" name="Annual mean wage" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{89402D94-0421-4D96-B948-F7D387F79AF5}" name="Annual mean wage" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D7D4DA7-64E9-4C90-A480-8177A1290C90}" name="Table13" displayName="Table13" ref="A1:K52" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D7D4DA7-64E9-4C90-A480-8177A1290C90}" name="Table13" displayName="Table13" ref="A1:K52" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:K52" xr:uid="{A7B032C4-0187-46EE-A329-FBDCD1EBF660}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9BD83DA1-F8FF-454B-A679-D69F77DCE294}" name="Occupation code" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{61096FFB-8D42-4000-A4F8-33F01CC1493E}" name="Occupation title (click on the occupation title to view its profile)" dataDxfId="5" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{331E5D52-22D9-499C-B038-E6E8E8239AF5}" name="Level" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{9BD83DA1-F8FF-454B-A679-D69F77DCE294}" name="Occupation code" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{61096FFB-8D42-4000-A4F8-33F01CC1493E}" name="Occupation title (click on the occupation title to view its profile)" dataDxfId="13" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{331E5D52-22D9-499C-B038-E6E8E8239AF5}" name="Level" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{9A007F9C-580C-4574-A669-859A0D0678B0}" name="Employment"/>
     <tableColumn id="5" xr3:uid="{A42C58A8-8608-4D9F-9720-5F2BE3CDBFF7}" name="Employment RSE"/>
     <tableColumn id="6" xr3:uid="{37D0B15F-147C-45C3-B370-ED98765D320D}" name="Employment per 1,000 jobs"/>
     <tableColumn id="7" xr3:uid="{AE03496D-E91F-46DA-A2CB-1AF723F89469}" name="Location quotient"/>
-    <tableColumn id="8" xr3:uid="{51D9BEA0-18DE-46E3-8941-D66DCECE19A3}" name="Median hourly wage" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{685D1A25-0F28-46E6-BCC8-2F6810E07E40}" name="Mean hourly wage" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{97CA5EF2-A24A-4D79-95B2-402A17B77CA6}" name="Annual mean wage" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{754A95A0-0E4C-4852-8C60-3966E3F17ECD}" name="Mean wage RSE" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{51D9BEA0-18DE-46E3-8941-D66DCECE19A3}" name="Median hourly wage" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{685D1A25-0F28-46E6-BCC8-2F6810E07E40}" name="Mean hourly wage" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{97CA5EF2-A24A-4D79-95B2-402A17B77CA6}" name="Annual mean wage" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{754A95A0-0E4C-4852-8C60-3966E3F17ECD}" name="Mean wage RSE" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DAD79C56-2126-4864-96EF-8131EB59D5DD}" name="Table1456" displayName="Table1456" ref="F2:H13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="3">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E06038D5-61D5-4500-B3A7-F317CBB9ACF0}" name="Professional, Scientific and Technical Services" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{BD54D578-4F91-47EE-9886-03FB7898B0D6}" name="Column1" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{93C0E043-FDE6-4F92-AF90-7CBC8B01B78A}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1390,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93C3DFC-BDCC-4026-8680-4907B954E9FE}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1711,7 +2107,7 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3620,4 +4016,290 @@
     <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C30C088-5906-4DBC-95A9-21C02202021E}">
+  <dimension ref="B1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="8" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="38">
+        <v>90017</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="39">
+        <v>13874</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="43">
+        <v>91504</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="30">
+        <v>66341</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="38">
+        <v>90071</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="39">
+        <v>12650</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="43">
+        <v>91608</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="30">
+        <v>14012</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="38">
+        <v>90245</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="39">
+        <v>11426</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="43">
+        <v>90404</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="30">
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="38">
+        <v>90067</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="39">
+        <v>9543</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="43">
+        <v>91505</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="30">
+        <v>7067</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="38">
+        <v>91505</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="39">
+        <v>7965</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="43">
+        <v>90064</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="30">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="38">
+        <v>90025</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="39">
+        <v>5657</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="43">
+        <v>90028</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="30">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="38">
+        <v>91367</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="39">
+        <v>5298</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="43">
+        <v>90245</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="30">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="38">
+        <v>90404</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="39">
+        <v>5013</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="43">
+        <v>91521</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="30">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="38">
+        <v>90010</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="39">
+        <v>4559</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="43">
+        <v>90232</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="30">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="40">
+        <v>90064</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="42">
+        <v>4460</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="43">
+        <v>90291</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="30">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E15" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>